--- a/priceFeederForCdc_api.xlsx
+++ b/priceFeederForCdc_api.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>api</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,108 +154,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>baseAsset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotaAsset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资产1标识（symbol符号或合约地址）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资产2标识（symbol符号或合约地址）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取价格（喂价人总数&lt;=5,取平均值，喂价人总数&gt;5,掐头去尾后取平均值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10098.01"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inited</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeederAdded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"HC,CON869c3fd41cff756529e3ead1fc31c451a39d6d64,10.0,0.1"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeederRemoved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"feeder\":\"feeder1\",\"price":\"10000.99\"}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceFeeded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerChanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price feeder contract for CDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只支持一对资产价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"NOT_INITED" /"COMMON"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedPrices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有喂价人的喂价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BTC"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"SL123\":\"10.0\"}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>string
-"contrertr33"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feeders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有喂价人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"[\"SL123\",\"feeder1\",\"feeder2\",\"feeder3\",\"feeder4\",\"feeder5\"]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAnnualStabilityFeeHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"[\"10.0\",\"10.1\",\"10.1\",\"10.1\",\"9.96\"]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有喂价人的喂价（排列顺序同喂价人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseAsset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quotaAsset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取资产1标识（symbol符号或合约地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取资产2标识（symbol符号或合约地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"BTC"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPrice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取价格（喂价人总数&lt;=5,取平均值，喂价人总数&gt;5,掐头去尾后取平均值）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10098.01"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inited</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeederAdded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"HC,CON869c3fd41cff756529e3ead1fc31c451a39d6d64,10.0,0.1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeederRemoved</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“feederAddress"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"feeder\":\"feeder1\",\"price":\"10000.99\"}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PriceFeeded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerChanged</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"newOwner"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price feeder contract for CDC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只支持一对资产价格</t>
+"HXCRCnJ8AV624UZBLNKz4UBweVbhVXkQfNe7"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -263,11 +251,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"NOT_INITED" /"COMMON"</t>
+    <t>"HXCRCnJ8AV624UZBLNKz4UBweVbhVXkQfNe7"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“HXCRCnJ8AV624UZBLNKz4UBweVbhVXkQfNe7"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F37"/>
+  <dimension ref="C2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -693,12 +681,12 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -824,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="28.5">
+    <row r="22" spans="3:6" ht="42.75">
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -833,156 +821,142 @@
         <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="28.5">
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="28.5">
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="28.5">
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="28.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="31" spans="3:6" ht="20.25">
-      <c r="C31" s="7" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="30" spans="3:6" ht="20.25">
+      <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
